--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_16_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_16_.xlsx
@@ -1888,10 +1888,10 @@
           <t>2017-10389</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2017-05-29T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2017-06-03T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-10-05T00:00:00</v>
       </c>
     </row>

--- a/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_16_.xlsx
+++ b/reports/_APL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_16_.xlsx
@@ -1639,7 +1639,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:8</t>
+          <t>Total number of containers:8</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:4</t>
+          <t>Total number of containers:4</t>
         </is>
       </c>
     </row>
